--- a/documentation/Results.xlsx
+++ b/documentation/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twe\Uni\Master\Bildverstehen\Projekt_Kalibrierung\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB533E0-264D-4D34-A3ED-BB685C875E32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E846E501-BB70-4BF2-B27C-7D65A7D22C02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{FFE3029E-CF93-4C4C-AF4F-B336F1C45E94}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C13" activeCellId="1" sqref="A13 C13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
